--- a/Hardware/LAB-PLR1010/docs/ReferenceGuide.xlsx
+++ b/Hardware/LAB-PLR1010/docs/ReferenceGuide.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drmoore\Documents\PEGMA\Hardware\LAB-PLR1010\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="0" windowWidth="19260" windowHeight="7680"/>
+    <workbookView xWindow="2250" yWindow="60" windowWidth="19260" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Supply V</t>
   </si>
@@ -54,6 +50,12 @@
   </si>
   <si>
     <t>LDOIin</t>
+  </si>
+  <si>
+    <t>Supply I (mA)</t>
+  </si>
+  <si>
+    <t>Vfb (mV)</t>
   </si>
 </sst>
 </file>
@@ -363,7 +365,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -373,27 +375,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -425,17 +427,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
         <f>B$1</f>
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="C3">
-        <f>F3*10000</f>
-        <v>9899.9999999999982</v>
+        <f>F3/(10*10^-6)</f>
+        <v>100.00000000000001</v>
       </c>
       <c r="D3">
         <f>A3</f>
@@ -443,888 +445,1962 @@
       </c>
       <c r="E3">
         <f>B$1</f>
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <f>G3*H3</f>
-        <v>0.98999999999999988</v>
+        <v>1E-3</v>
       </c>
       <c r="G3">
         <f>E3</f>
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="H3">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" ref="H3:H24" si="0">D$1</f>
+        <v>1</v>
       </c>
       <c r="I3">
         <f>(D3-F3)*G3</f>
-        <v>6.3000000000000014E-2</v>
+        <v>1.1990000000000002E-3</v>
       </c>
       <c r="J3">
         <f>(F3-0)*G3</f>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B24" si="0">B$1</f>
-        <v>0.3</v>
+        <f t="shared" ref="B4:B24" si="1">B$1</f>
+        <v>1E-3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="1">F4*10000</f>
-        <v>9899.9999999999982</v>
+        <f t="shared" ref="C4:C24" si="2">F4/(10*10^-6)</f>
+        <v>100.00000000000001</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="2">A4</f>
+        <f t="shared" ref="D4:D24" si="3">A4</f>
         <v>1.3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="3">B$1</f>
-        <v>0.3</v>
+        <f t="shared" ref="E4:E24" si="4">B$1</f>
+        <v>1E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F24" si="4">G4*H4</f>
-        <v>0.98999999999999988</v>
+        <f t="shared" ref="F4:F24" si="5">G4*H4</f>
+        <v>1E-3</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G24" si="5">E4</f>
-        <v>0.3</v>
+        <f t="shared" ref="G4:G24" si="6">E4</f>
+        <v>1E-3</v>
       </c>
       <c r="H4">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I24" si="6">(D4-F4)*G4</f>
-        <v>9.3000000000000041E-2</v>
+        <f t="shared" ref="I4:I24" si="7">(D4-F4)*G4</f>
+        <v>1.2990000000000002E-3</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J24" si="7">(F4-0)*G4</f>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J4:J24" si="8">(F4-0)*G4</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H5">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
-        <v>0.123</v>
+        <f t="shared" si="7"/>
+        <v>1.3990000000000001E-3</v>
       </c>
       <c r="J5">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H6">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>0.15300000000000002</v>
+        <f t="shared" si="7"/>
+        <v>1.4990000000000001E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H7">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>0.18300000000000005</v>
+        <f t="shared" si="7"/>
+        <v>1.5990000000000002E-3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H8">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>0.21300000000000002</v>
+        <f t="shared" si="7"/>
+        <v>1.6990000000000002E-3</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H9">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>0.24300000000000005</v>
+        <f t="shared" si="7"/>
+        <v>1.7990000000000003E-3</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H10">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0.27300000000000002</v>
+        <f t="shared" si="7"/>
+        <v>1.8990000000000001E-3</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H11">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0.30300000000000005</v>
+        <f t="shared" si="7"/>
+        <v>1.9990000000000003E-3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.1</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H12">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>0.33300000000000007</v>
+        <f t="shared" si="7"/>
+        <v>2.0990000000000002E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.2000000000000002</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H13">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0.3630000000000001</v>
+        <f t="shared" si="7"/>
+        <v>2.1990000000000004E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.2999999999999998</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H14">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
-        <v>0.39300000000000002</v>
+        <f t="shared" si="7"/>
+        <v>2.2989999999999998E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.4</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H15">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
-        <v>0.42300000000000004</v>
+        <f t="shared" si="7"/>
+        <v>2.3990000000000001E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H16">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
-        <v>0.45300000000000007</v>
+        <f t="shared" si="7"/>
+        <v>2.4990000000000004E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H17">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0.4830000000000001</v>
+        <f t="shared" si="7"/>
+        <v>2.5990000000000002E-3</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.7</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H18">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
-        <v>0.51300000000000012</v>
+        <f t="shared" si="7"/>
+        <v>2.6990000000000004E-3</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.8</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H19">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I19">
-        <f t="shared" si="6"/>
-        <v>0.54300000000000004</v>
+        <f t="shared" si="7"/>
+        <v>2.7989999999999998E-3</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.9</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H20">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I20">
-        <f t="shared" si="6"/>
-        <v>0.57300000000000006</v>
+        <f t="shared" si="7"/>
+        <v>2.8990000000000001E-3</v>
       </c>
       <c r="J20">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H21">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I21">
-        <f t="shared" si="6"/>
-        <v>0.60300000000000009</v>
+        <f t="shared" si="7"/>
+        <v>2.9990000000000004E-3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.1</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H22">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I22">
-        <f t="shared" si="6"/>
-        <v>0.63300000000000012</v>
+        <f t="shared" si="7"/>
+        <v>3.0990000000000002E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H23">
-        <f>D$1</f>
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I23">
-        <f t="shared" si="6"/>
-        <v>0.66300000000000014</v>
+        <f t="shared" si="7"/>
+        <v>3.1990000000000005E-3</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.3</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>9899.9999999999982</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
-        <v>0.98999999999999988</v>
+        <f t="shared" si="5"/>
+        <v>1E-3</v>
       </c>
       <c r="G24">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
+        <f t="shared" si="6"/>
+        <v>1E-3</v>
       </c>
       <c r="H24">
-        <f>D$1</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>3.2989999999999998E-3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>D2/1000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.2</v>
+      </c>
+      <c r="B4">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C4">
+        <f>G4/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <f>H4*1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <f>A4</f>
+        <v>1.2</v>
+      </c>
+      <c r="F4">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G4">
+        <f>H4*I4</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H4">
+        <f>F4</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I4">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>(E4-G4)*H4</f>
+        <v>1.1999989999999999E-6</v>
+      </c>
+      <c r="K4">
+        <f>(G4-0)*H4</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="B5">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C5">
+        <f>G5/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D25" si="0">H5*1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <f>A5</f>
+        <v>1.3</v>
+      </c>
+      <c r="F5">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G25" si="1">H5*I5</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H25" si="2">F5</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I5">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J25" si="3">(E5-G5)*H5</f>
+        <v>1.299999E-6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K25" si="4">(G5-0)*H5</f>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.4</v>
+      </c>
+      <c r="B6">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C6">
+        <f>G6/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <f>A6</f>
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I6">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.3999989999999999E-6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C7">
+        <f>G7/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E7">
+        <f>A7</f>
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I7">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1.499999E-6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.6</v>
+      </c>
+      <c r="B8">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C8">
+        <f>G8/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E8">
+        <f>A8</f>
+        <v>1.6</v>
+      </c>
+      <c r="F8">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I8">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1.5999990000000001E-6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.7</v>
+      </c>
+      <c r="B9">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C9">
+        <f>G9/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <f>A9</f>
+        <v>1.7</v>
+      </c>
+      <c r="F9">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I9">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.699999E-6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.8</v>
+      </c>
+      <c r="B10">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C10">
+        <f>G10/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E10">
+        <f>A10</f>
+        <v>1.8</v>
+      </c>
+      <c r="F10">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I10">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1.7999990000000001E-6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.9</v>
+      </c>
+      <c r="B11">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C11">
+        <f>G11/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <f>A11</f>
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I11">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>1.899999E-6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C12">
+        <f>G12/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
+        <f>A12</f>
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I12">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1.9999990000000001E-6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.1</v>
+      </c>
+      <c r="B13">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C13">
+        <f>G13/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <f>A13</f>
+        <v>2.1</v>
+      </c>
+      <c r="F13">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I13">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>2.099999E-6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C14">
+        <f>G14/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E14">
+        <f>A14</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F14">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I14">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>2.1999989999999999E-6</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C15">
+        <f>G15/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E15">
+        <f>A15</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F15">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I15">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>2.2999989999999998E-6</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.4</v>
+      </c>
+      <c r="B16">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C16">
+        <f>G16/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E16">
+        <f>A16</f>
+        <v>2.4</v>
+      </c>
+      <c r="F16">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>2.3999989999999997E-6</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2.5</v>
+      </c>
+      <c r="B17">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C17">
+        <f>G17/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E17">
+        <f>A17</f>
+        <v>2.5</v>
+      </c>
+      <c r="F17">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I17">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>2.4999989999999995E-6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.6</v>
+      </c>
+      <c r="B18">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C18">
+        <f>G18/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E18">
+        <f>A18</f>
+        <v>2.6</v>
+      </c>
+      <c r="F18">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I18">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>2.5999989999999999E-6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.7</v>
+      </c>
+      <c r="B19">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C19">
+        <f>G19/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E19">
+        <f>A19</f>
+        <v>2.7</v>
+      </c>
+      <c r="F19">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I19">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>2.6999989999999997E-6</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.8</v>
+      </c>
+      <c r="B20">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C20">
+        <f>G20/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E20">
+        <f>A20</f>
+        <v>2.8</v>
+      </c>
+      <c r="F20">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I20">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>2.7999989999999996E-6</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.9</v>
+      </c>
+      <c r="B21">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C21">
+        <f>G21/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E21">
+        <f>A21</f>
+        <v>2.9</v>
+      </c>
+      <c r="F21">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I21">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>2.8999989999999995E-6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C22">
+        <f>G22/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E22">
+        <f>A22</f>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I22">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>2.9999989999999998E-6</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.1</v>
+      </c>
+      <c r="B23">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C23">
+        <f>G23/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E23">
+        <f>A23</f>
+        <v>3.1</v>
+      </c>
+      <c r="F23">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I23">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>3.0999989999999997E-6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.2</v>
+      </c>
+      <c r="B24">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C24">
+        <f>G24/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E24">
+        <f>A24</f>
+        <v>3.2</v>
+      </c>
+      <c r="F24">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I24">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>3.199999E-6</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>3.3</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="7"/>
-        <v>0.29699999999999993</v>
+      <c r="B25">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C25">
+        <f>G25/(10*10^-6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+      <c r="E25">
+        <f>A25</f>
+        <v>3.3</v>
+      </c>
+      <c r="F25">
+        <f>B$2</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I25">
+        <f>H$2</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>3.2999989999999995E-6</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999998E-13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>1000*1000/(2^16)</f>
+        <v>15.2587890625</v>
       </c>
     </row>
   </sheetData>
